--- a/data/trans_dic/P0902-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1053462613010853</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07352124530908428</v>
+        <v>0.0735212453090843</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1347338101840242</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05391000287268033</v>
+        <v>0.05740244696786364</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09647898348356405</v>
+        <v>0.09700811554899924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07230971958983978</v>
+        <v>0.07274699682086253</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05013805728999676</v>
+        <v>0.04659265160159624</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09416648262538166</v>
+        <v>0.09412538447155459</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2250478885120444</v>
+        <v>0.2210875676041075</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1984240787098947</v>
+        <v>0.1972345725668264</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09296576533466003</v>
+        <v>0.0924965979781505</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08216851620753873</v>
+        <v>0.08392681925884646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.168973777873177</v>
+        <v>0.1666906973198301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1419522503919499</v>
+        <v>0.144204380960848</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07678065439567948</v>
+        <v>0.07762152829665989</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1242278907973116</v>
+        <v>0.1228677740003461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1744490360848318</v>
+        <v>0.1817077747721138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1460126100288022</v>
+        <v>0.1486356340583768</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1067485938537139</v>
+        <v>0.1038626754511487</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1803238778277955</v>
+        <v>0.1806545951106864</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3348096049247333</v>
+        <v>0.3335884837789424</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3005909689633618</v>
+        <v>0.3027491653230373</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1480737927990988</v>
+        <v>0.1517628833464973</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1368668497901559</v>
+        <v>0.1402831246019091</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2398418744530811</v>
+        <v>0.2354377139077986</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2116790875042618</v>
+        <v>0.2100557287983231</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1164615827267628</v>
+        <v>0.1193031161098203</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0692129176493621</v>
+        <v>0.06953204311785945</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08060989770875231</v>
+        <v>0.07853437578144541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06298562299338163</v>
+        <v>0.06158381889237953</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1427115264898111</v>
+        <v>0.1412858409296692</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1315301208245951</v>
+        <v>0.1335723274423275</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1507645878378087</v>
+        <v>0.1538405999413115</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1181104811128079</v>
+        <v>0.1170189154365012</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2085509387717039</v>
+        <v>0.2101269491689653</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1081720337298018</v>
+        <v>0.1069380113339195</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1242232000845654</v>
+        <v>0.1243169672817836</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09634387884245338</v>
+        <v>0.09859301311461478</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1846660876065683</v>
+        <v>0.1851034638903649</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1229250082565436</v>
+        <v>0.1226004113004917</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1427428805652096</v>
+        <v>0.1449243955305365</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1129378459836007</v>
+        <v>0.1126397920574403</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2189634494872084</v>
+        <v>0.2184834600997397</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1992171098145096</v>
+        <v>0.2016351187300287</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2235644161029975</v>
+        <v>0.2221746392335442</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1855338391543695</v>
+        <v>0.184126559394245</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2710115373497924</v>
+        <v>0.272345773041599</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1508421895430007</v>
+        <v>0.1497207186538135</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1692660451504108</v>
+        <v>0.172268364277727</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1393405850156837</v>
+        <v>0.1401509946887007</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2309529703436447</v>
+        <v>0.2346927172739132</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02714834360725556</v>
+        <v>0.02947162605588356</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08227024363351884</v>
+        <v>0.08345669435560875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04805691582022548</v>
+        <v>0.04930302264072286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09935239906848702</v>
+        <v>0.09878423302865506</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08654310335570152</v>
+        <v>0.08795100156558776</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1296649540642671</v>
+        <v>0.1333915662021822</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07452808782555038</v>
+        <v>0.07545830419378434</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1445597765784857</v>
+        <v>0.1435475854110297</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06333266973257855</v>
+        <v>0.06412168437657222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1176544282528712</v>
+        <v>0.1178904623451774</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07000508839090465</v>
+        <v>0.07033057724445903</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1322182939168469</v>
+        <v>0.1306402986788767</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07679746145058747</v>
+        <v>0.07838194053924179</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1568911112302026</v>
+        <v>0.1609340987748528</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1052102220623776</v>
+        <v>0.1037546321475186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1650668488651353</v>
+        <v>0.1621867578722429</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1556447847506214</v>
+        <v>0.1564286203634585</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2185040762824251</v>
+        <v>0.2121874864793234</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1508463856484064</v>
+        <v>0.1477028342363893</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2042495586478327</v>
+        <v>0.2045254271141844</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1075872324125984</v>
+        <v>0.1070381188120468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1726409317895784</v>
+        <v>0.1750280230659509</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1180516785818172</v>
+        <v>0.1141304154539261</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1769626189524255</v>
+        <v>0.1735243581489938</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0200483269897252</v>
+        <v>0.02045643518243354</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1169839105079144</v>
+        <v>0.1172881767671169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1283263088794895</v>
+        <v>0.1303711407759196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1262760057713362</v>
+        <v>0.1274411236372706</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1102433249434777</v>
+        <v>0.1097627815365644</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2699977034448846</v>
+        <v>0.2697194646274239</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2524723269923909</v>
+        <v>0.2572982078019772</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2114918069491817</v>
+        <v>0.2144123227064076</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06988054107744919</v>
+        <v>0.07139658461518393</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2079321714292554</v>
+        <v>0.2078103331753094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.204689594791452</v>
+        <v>0.2070122207000025</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1836955898707596</v>
+        <v>0.1823198565036962</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05868805726304872</v>
+        <v>0.05951346512187466</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1915933765496926</v>
+        <v>0.1904498709781432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2075204695069457</v>
+        <v>0.212561510550321</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2168487024282455</v>
+        <v>0.2191046083514804</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1793951554809931</v>
+        <v>0.1810757506175645</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.366759115167087</v>
+        <v>0.3703871914163808</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.348923877802488</v>
+        <v>0.355443423967081</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2871318615144671</v>
+        <v>0.2934707101897659</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1107175560366987</v>
+        <v>0.11292829550671</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2707735617080734</v>
+        <v>0.2724005305005751</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2711270844677554</v>
+        <v>0.271253476705749</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2436081215460822</v>
+        <v>0.2407433008119941</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.07834789781400073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0643196397379201</v>
+        <v>0.06431963973792008</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1150230261869739</v>
@@ -1229,7 +1229,7 @@
         <v>0.1382206060015442</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1173995839804389</v>
+        <v>0.1173995839804388</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.09442105250477187</v>
@@ -1241,7 +1241,7 @@
         <v>0.1087972978196074</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09215157560803879</v>
+        <v>0.0921515756080388</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04172383787565955</v>
+        <v>0.04000070160575043</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07878286001717019</v>
+        <v>0.07602547356708764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0480611731415241</v>
+        <v>0.04705959138402566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04093263915188255</v>
+        <v>0.04046967165904239</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07583928934605288</v>
+        <v>0.07675006475939729</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2083273078016877</v>
+        <v>0.2117079333784076</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09742584326070577</v>
+        <v>0.09556618784801792</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09351169076394494</v>
+        <v>0.09061509017898338</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06626488903070667</v>
+        <v>0.06618236614241166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1564288395290162</v>
+        <v>0.1577956820808658</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08218407070500384</v>
+        <v>0.08382024758117342</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07484287112718979</v>
+        <v>0.07411924972195519</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1146586287165889</v>
+        <v>0.115617631550679</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1766715634041988</v>
+        <v>0.1649892381503558</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1249506983491065</v>
+        <v>0.128944512717161</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09636731274485956</v>
+        <v>0.09482727009489599</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1685725643073153</v>
+        <v>0.1621351936760801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3377767506306218</v>
+        <v>0.332874646818358</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1924171775545751</v>
+        <v>0.1915992511906559</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1511475733280041</v>
+        <v>0.1466194986315565</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1280214807147703</v>
+        <v>0.1229439411408852</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2350656137673148</v>
+        <v>0.2338145052543109</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1390988090711585</v>
+        <v>0.1461959200224871</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1129577161933053</v>
+        <v>0.1128397422043123</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1388410328900949</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1087463886629896</v>
+        <v>0.1087463886629895</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1646442118496814</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05358726396583281</v>
+        <v>0.05073544744806315</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08913215589937939</v>
+        <v>0.09448673652070146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09649750230947247</v>
+        <v>0.09958832369480913</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0843023359958029</v>
+        <v>0.0820703769212921</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1229521792114689</v>
+        <v>0.1204626180481757</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1260429052046062</v>
+        <v>0.1275654598496044</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1650133658786189</v>
+        <v>0.1576364101056906</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1246420042333266</v>
+        <v>0.1242549868791418</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0965444406833391</v>
+        <v>0.1001289156520459</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1181460865377204</v>
+        <v>0.1195405701988802</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.143361768460995</v>
+        <v>0.1443483152836449</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.110486515588168</v>
+        <v>0.1110115465885869</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1206600017611349</v>
+        <v>0.1172274603949269</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1742857346239515</v>
+        <v>0.1745680441112263</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1847999869821925</v>
+        <v>0.1866025058994818</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1444791909595776</v>
+        <v>0.1447144656217892</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2143102282660125</v>
+        <v>0.2082256145245852</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2180404978695824</v>
+        <v>0.2137095482603604</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2673108170410946</v>
+        <v>0.2660214413379231</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1872713567949627</v>
+        <v>0.188356927783067</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1534898037814377</v>
+        <v>0.1532276590085226</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1829496093230642</v>
+        <v>0.176849812783968</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2092735988795807</v>
+        <v>0.210172411505772</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1539829435444191</v>
+        <v>0.153521512558798</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07168714343478542</v>
+        <v>0.07125949390261488</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05390211507363826</v>
+        <v>0.05444642110033768</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06523345215379724</v>
+        <v>0.06566447328927702</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09715627774307579</v>
+        <v>0.09898651325946101</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1097661592578092</v>
+        <v>0.109088822907883</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1228927864724025</v>
+        <v>0.1230245269418537</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.158791382718645</v>
+        <v>0.1574316401894269</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1966810954948281</v>
+        <v>0.1977990807820993</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09619660727025346</v>
+        <v>0.09599014981863407</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09510607287096193</v>
+        <v>0.09459487907072456</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1216176092796624</v>
+        <v>0.1207700159459775</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1558014545466968</v>
+        <v>0.1555374531261596</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1192677666522046</v>
+        <v>0.1167160432918248</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09412939700090825</v>
+        <v>0.09431449456597039</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1127084196727176</v>
+        <v>0.1103127061965828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1486300064698402</v>
+        <v>0.1499161783841139</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1613154135802943</v>
+        <v>0.1620843160146308</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1800611956223558</v>
+        <v>0.1804443286641661</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2230379805841262</v>
+        <v>0.2206103505761171</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2476557090281336</v>
+        <v>0.2479126176038483</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1329080910695835</v>
+        <v>0.131404129582715</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1306241275345814</v>
+        <v>0.1311784624139492</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1604106329172426</v>
+        <v>0.1591349033741219</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1928749401988831</v>
+        <v>0.1925440137884329</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.05941341849264695</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1114115160565579</v>
+        <v>0.1114115160565578</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1637330237598867</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07905499976617061</v>
+        <v>0.08281964774030065</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08364022482359899</v>
+        <v>0.08418932049961823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04295881310106859</v>
+        <v>0.04372528348239779</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09196975734805085</v>
+        <v>0.0906207879728194</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1361655632902184</v>
+        <v>0.1401198299638661</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1472323314126842</v>
+        <v>0.1462000054547485</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1032674362396907</v>
+        <v>0.1044059957821609</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1702520202357674</v>
+        <v>0.1714029498013285</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1169356249524714</v>
+        <v>0.1164794777050801</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1214697004933235</v>
+        <v>0.1220786016780779</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07960635997634265</v>
+        <v>0.08026808215114363</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1397242170005177</v>
+        <v>0.1381922234899574</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1240079055194972</v>
+        <v>0.1249829999924659</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.129427880130898</v>
+        <v>0.1324527696161765</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07745402900222287</v>
+        <v>0.08015601912087085</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1351752571337043</v>
+        <v>0.1333394765322564</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1904860996688326</v>
+        <v>0.1954547744519116</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1995967694075704</v>
+        <v>0.2025829588163219</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1534024793497573</v>
+        <v>0.1576871832117799</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2157942609532795</v>
+        <v>0.2155664908917999</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1516235056070318</v>
+        <v>0.1510925878959039</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1579670082708735</v>
+        <v>0.1583207363478136</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1112578382670185</v>
+        <v>0.1109711471244103</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.171909180258247</v>
+        <v>0.1695250838103672</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0722116170627532</v>
+        <v>0.07125861352706866</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.09849274325348616</v>
+        <v>0.09894960269887848</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08239111143763561</v>
+        <v>0.08173079213719625</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.114139292084899</v>
+        <v>0.1133629790276453</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1336954076318706</v>
+        <v>0.1355410033041544</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1877240959877323</v>
+        <v>0.1861066158704865</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1632946993012803</v>
+        <v>0.1644571637175529</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1859135352263089</v>
+        <v>0.1862220758199327</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1066149283771311</v>
+        <v>0.1068637554077966</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1468464836656466</v>
+        <v>0.1468240236114814</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1271677465372974</v>
+        <v>0.1272847776515448</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1545480778478216</v>
+        <v>0.1539307313318631</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.09180680694019218</v>
+        <v>0.09064470691812312</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1214023683195498</v>
+        <v>0.121140322118327</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1012864138932084</v>
+        <v>0.1017971627097236</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1355439976204805</v>
+        <v>0.1358335931707598</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.158173292165208</v>
+        <v>0.1601318938960184</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.214035376244288</v>
+        <v>0.2131996717722293</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1906580238612462</v>
+        <v>0.1917950354221123</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2062855535017477</v>
+        <v>0.2083180777231591</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1222099308664998</v>
+        <v>0.1224697837226158</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.164971292363422</v>
+        <v>0.1646585147154178</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.14459346950129</v>
+        <v>0.1443587801942836</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.169797006110402</v>
+        <v>0.1695550106056338</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14718</v>
+        <v>15671</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>28436</v>
+        <v>28592</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21242</v>
+        <v>21370</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15986</v>
+        <v>14856</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24562</v>
+        <v>24551</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>64644</v>
+        <v>63506</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>57286</v>
+        <v>56942</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29383</v>
+        <v>29235</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>43865</v>
+        <v>44804</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>98340</v>
+        <v>97011</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>82682</v>
+        <v>83994</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>48748</v>
+        <v>49282</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33915</v>
+        <v>33544</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51417</v>
+        <v>53556</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42893</v>
+        <v>43663</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34036</v>
+        <v>33116</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>47035</v>
+        <v>47122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>96172</v>
+        <v>95822</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>86782</v>
+        <v>87405</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46800</v>
+        <v>47966</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>73066</v>
+        <v>74890</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>139584</v>
+        <v>137021</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>123295</v>
+        <v>122350</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>73942</v>
+        <v>75746</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34127</v>
+        <v>34285</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>40750</v>
+        <v>39701</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31655</v>
+        <v>30950</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>75729</v>
+        <v>74973</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>66284</v>
+        <v>67314</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>78965</v>
+        <v>80576</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>61782</v>
+        <v>61211</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>113972</v>
+        <v>114833</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>107850</v>
+        <v>106620</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>127862</v>
+        <v>127958</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>98816</v>
+        <v>101123</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>198911</v>
+        <v>199383</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>60611</v>
+        <v>60451</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>72160</v>
+        <v>73263</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56760</v>
+        <v>56610</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>116192</v>
+        <v>115938</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>100395</v>
+        <v>101614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>117095</v>
+        <v>116367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>97050</v>
+        <v>96314</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>148106</v>
+        <v>148835</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>150393</v>
+        <v>149275</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>174224</v>
+        <v>177314</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>142916</v>
+        <v>143747</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>248769</v>
+        <v>252797</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8656</v>
+        <v>9397</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26659</v>
+        <v>27044</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15309</v>
+        <v>15706</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>31395</v>
+        <v>31215</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>29028</v>
+        <v>29500</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>44218</v>
+        <v>45489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>25064</v>
+        <v>25377</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>51425</v>
+        <v>51065</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>41436</v>
+        <v>41952</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>78248</v>
+        <v>78405</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45845</v>
+        <v>46058</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>88815</v>
+        <v>87755</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24487</v>
+        <v>24992</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50840</v>
+        <v>52150</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33516</v>
+        <v>33053</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>52160</v>
+        <v>51250</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>52205</v>
+        <v>52468</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>74514</v>
+        <v>72360</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>50731</v>
+        <v>49674</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>72659</v>
+        <v>72757</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>70390</v>
+        <v>70031</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>114818</v>
+        <v>116405</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>77309</v>
+        <v>74741</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>118871</v>
+        <v>116562</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7191</v>
+        <v>7337</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43750</v>
+        <v>43864</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47476</v>
+        <v>48233</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>47045</v>
+        <v>47479</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>40951</v>
+        <v>40772</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>105016</v>
+        <v>104908</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>97778</v>
+        <v>99647</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>89241</v>
+        <v>90474</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>51022</v>
+        <v>52129</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>158638</v>
+        <v>158545</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>155001</v>
+        <v>156759</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>145950</v>
+        <v>144857</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21050</v>
+        <v>21346</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>71652</v>
+        <v>71225</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>76775</v>
+        <v>78640</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>80789</v>
+        <v>81629</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>66637</v>
+        <v>67262</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142651</v>
+        <v>144062</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>135132</v>
+        <v>137657</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>121158</v>
+        <v>123833</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>80838</v>
+        <v>82452</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>206582</v>
+        <v>207823</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>205310</v>
+        <v>205406</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>193552</v>
+        <v>191275</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8483</v>
+        <v>8132</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16751</v>
+        <v>16164</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10152</v>
+        <v>9940</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8398</v>
+        <v>8303</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15749</v>
+        <v>15939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>45747</v>
+        <v>46489</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>21296</v>
+        <v>20890</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>21150</v>
+        <v>20494</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>27233</v>
+        <v>27199</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>67610</v>
+        <v>68201</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>35323</v>
+        <v>36027</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>32283</v>
+        <v>31971</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23311</v>
+        <v>23506</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>37564</v>
+        <v>35080</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26392</v>
+        <v>27236</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19772</v>
+        <v>19456</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>35007</v>
+        <v>33670</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>74173</v>
+        <v>73096</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>42060</v>
+        <v>41881</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>34185</v>
+        <v>33161</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>52614</v>
+        <v>50527</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>101597</v>
+        <v>101057</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>59786</v>
+        <v>62836</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>48723</v>
+        <v>48673</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>14512</v>
+        <v>13740</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>24421</v>
+        <v>25888</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>25391</v>
+        <v>26204</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>22821</v>
+        <v>22217</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>34198</v>
+        <v>33506</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>35296</v>
+        <v>35722</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>45068</v>
+        <v>43053</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>32874</v>
+        <v>32772</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>52999</v>
+        <v>54966</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>65454</v>
+        <v>66227</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>76876</v>
+        <v>77405</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>59050</v>
+        <v>59331</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>32676</v>
+        <v>31746</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>47751</v>
+        <v>47828</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>48625</v>
+        <v>49099</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>39112</v>
+        <v>39175</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>59609</v>
+        <v>57917</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>61058</v>
+        <v>59845</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>73007</v>
+        <v>72654</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>49393</v>
+        <v>49679</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>84259</v>
+        <v>84115</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>101356</v>
+        <v>97977</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>112220</v>
+        <v>112702</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>82297</v>
+        <v>82051</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>44090</v>
+        <v>43827</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>35676</v>
+        <v>36036</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42830</v>
+        <v>43113</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>69717</v>
+        <v>71031</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>70055</v>
+        <v>69623</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>85035</v>
+        <v>85126</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>109772</v>
+        <v>108832</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>151849</v>
+        <v>152712</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>120558</v>
+        <v>120299</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>128755</v>
+        <v>128063</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>163923</v>
+        <v>162780</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>232088</v>
+        <v>231694</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>73353</v>
+        <v>71784</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>62301</v>
+        <v>62424</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>74000</v>
+        <v>72427</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>106654</v>
+        <v>107577</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>102955</v>
+        <v>103445</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>124592</v>
+        <v>124857</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>154185</v>
+        <v>152507</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>191204</v>
+        <v>191403</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>166567</v>
+        <v>164682</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>176840</v>
+        <v>177590</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>216210</v>
+        <v>214490</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>287314</v>
+        <v>286821</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>58801</v>
+        <v>61601</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>65164</v>
+        <v>65592</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>33447</v>
+        <v>34044</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>73398</v>
+        <v>72322</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>106687</v>
+        <v>109785</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>120998</v>
+        <v>120150</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>85316</v>
+        <v>86257</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>141536</v>
+        <v>142493</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>178596</v>
+        <v>177900</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>194463</v>
+        <v>195438</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>127748</v>
+        <v>128810</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>227667</v>
+        <v>225171</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>92236</v>
+        <v>92962</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>100837</v>
+        <v>103194</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>60304</v>
+        <v>62408</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>107880</v>
+        <v>106415</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>149248</v>
+        <v>153141</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>164033</v>
+        <v>166487</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>126736</v>
+        <v>130276</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>179396</v>
+        <v>179207</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>231575</v>
+        <v>230765</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>252892</v>
+        <v>253459</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>178541</v>
+        <v>178081</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>280109</v>
+        <v>276225</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>236604</v>
+        <v>233482</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>337422</v>
+        <v>338987</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>279664</v>
+        <v>277423</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>402863</v>
+        <v>400123</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>451783</v>
+        <v>458020</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>667240</v>
+        <v>661490</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>578805</v>
+        <v>582925</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>694120</v>
+        <v>695272</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>709601</v>
+        <v>711257</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1025021</v>
+        <v>1024864</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>882403</v>
+        <v>883215</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1122504</v>
+        <v>1118020</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>300809</v>
+        <v>297001</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>415907</v>
+        <v>415010</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>343802</v>
+        <v>345535</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>478413</v>
+        <v>479435</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>534499</v>
+        <v>541117</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>760759</v>
+        <v>757789</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>675795</v>
+        <v>679826</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>770180</v>
+        <v>777769</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>813398</v>
+        <v>815127</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1151536</v>
+        <v>1149353</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1003318</v>
+        <v>1001690</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1233259</v>
+        <v>1231502</v>
       </c>
     </row>
     <row r="40">
